--- a/biology/Médecine/W._Ross_Ashby/W._Ross_Ashby.xlsx
+++ b/biology/Médecine/W._Ross_Ashby/W._Ross_Ashby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Ross Ashby, né le 6 septembre 1903 à Londres et mort le 15 novembre 1972 à Tockington, est un psychiatre britannique, pionnier de la cybernétique. Ludwig von Bertalanffy le cite pour avoir influencé Norbert Wiener, Herbert Alexander Simon et d'autres.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a étendu aux monde des machines le concept biologique d'homéostasie, équilibre des fonctions vitales de la vie, par l'introduction d'un appareil, l'homéostat, qui présente cette caractéristique, nouvelle dans les années 1950, de combattre des interventions destinées à en perturber le fonctionnement. La machine rééquilibre dans une position fixe des plaquettes soumises à des courants contradictoires dans des bains acidulés entraînant des variations de positions qu'elle corrige d'elle-même pour ramener l'ensemble à une position moyenne fixe. Une démonstration de l'homéostat figure dans le court-métrage de Jean-Marie Piquint La Cybernétique (1964).
 La Loi de la variété requise est la plus connue de celles énoncées par Ashby. La « variété » est le dénombrement de la quantité de comportements et d’états différents mesurés pour un système donné.
